--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,12 +46,12 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -61,337 +61,334 @@
     <t>waste</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>smaller</t>
   </si>
   <si>
     <t>instead</t>
   </si>
   <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>pool</t>
   </si>
   <si>
+    <t>tiny</t>
+  </si>
+  <si>
     <t>water</t>
   </si>
   <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>guess</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>probably</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>un</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>di</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>thought</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
     <t>minutes</t>
   </si>
   <si>
-    <t>though</t>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>seems</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>seems</t>
-  </si>
-  <si>
-    <t>nothing</t>
+    <t>price</t>
   </si>
   <si>
     <t>could</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>worked</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>look</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>worked</t>
+    <t>box</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>think</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>look</t>
+    <t>expected</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
-    <t>34</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>use</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>one</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>toy</t>
   </si>
   <si>
     <t>made</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>get</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>elf</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cute</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>playing</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>grandchildren</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>play</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
-    <t>grandson</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -752,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q79"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -821,13 +818,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -839,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -871,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -889,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K4">
-        <v>0.85</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -913,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -921,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8095238095238095</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -939,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K5">
-        <v>0.8494623655913979</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -963,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -971,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -989,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K6">
-        <v>0.8461538461538461</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1013,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1021,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7096774193548387</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D7">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1039,19 +1036,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K7">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1063,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1071,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.703125</v>
+        <v>0.65625</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1089,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K8">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1113,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1121,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6351351351351351</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1139,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K9">
         <v>0.75</v>
@@ -1171,13 +1168,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6181818181818182</v>
+        <v>0.6213592233009708</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1189,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K10">
-        <v>0.6981132075471698</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="L10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1213,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1221,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.616504854368932</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C11">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>127</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1239,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>79</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K11">
-        <v>0.5797101449275363</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M11">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1263,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1271,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6052631578947368</v>
+        <v>0.6134453781512605</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1289,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K12">
-        <v>0.5667144906743186</v>
+        <v>0.569583931133429</v>
       </c>
       <c r="L12">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M12">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1313,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,16 +1339,16 @@
         <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K13">
-        <v>0.533195020746888</v>
+        <v>0.5</v>
       </c>
       <c r="L13">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="M13">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1363,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>225</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1371,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1389,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K14">
-        <v>0.4745901639344262</v>
+        <v>0.4688524590163934</v>
       </c>
       <c r="L14">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="M14">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1413,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>641</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1421,13 +1418,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5952380952380952</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1439,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K15">
         <v>0.3773584905660378</v>
@@ -1471,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1489,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K16">
-        <v>0.3544973544973545</v>
+        <v>0.3761467889908257</v>
       </c>
       <c r="L16">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="M16">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1513,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>122</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1521,13 +1518,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5862068965517241</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1539,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>0.35</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="L17">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M17">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1563,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1571,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5714285714285714</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C18">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1589,19 +1586,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K18">
-        <v>0.3493975903614458</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L18">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1613,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1621,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5185185185185185</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1639,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K19">
-        <v>0.3486238532110092</v>
+        <v>0.3386243386243386</v>
       </c>
       <c r="L19">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="M19">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1663,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>213</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1671,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5159420289855072</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C20">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="D20">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1689,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K20">
-        <v>0.2727272727272727</v>
+        <v>0.28125</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1713,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>40</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1721,13 +1718,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5142857142857142</v>
+        <v>0.4578313253012048</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1739,19 +1736,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K21">
         <v>0.265625</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1763,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>94</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1771,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="C22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1789,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K22">
-        <v>0.2587412587412588</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1813,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>106</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1821,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4883720930232558</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1839,19 +1836,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K23">
-        <v>0.2473118279569892</v>
+        <v>0.2447552447552448</v>
       </c>
       <c r="L23">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M23">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1863,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1871,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4457831325301205</v>
+        <v>0.4409448818897638</v>
       </c>
       <c r="C24">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1889,31 +1886,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K24">
-        <v>0.2368421052631579</v>
+        <v>0.224</v>
       </c>
       <c r="L24">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="N24">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1921,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4453125</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C25">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1939,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K25">
-        <v>0.208</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1963,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1971,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4444444444444444</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1989,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K26">
-        <v>0.1967871485943775</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L26">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2013,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2021,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4210526315789473</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2039,31 +2036,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K27">
-        <v>0.1825396825396825</v>
+        <v>0.1973684210526316</v>
       </c>
       <c r="L27">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
-        <v>103</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2071,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4028436018957346</v>
+        <v>0.375</v>
       </c>
       <c r="C28">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2089,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>126</v>
+        <v>80</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K28">
-        <v>0.1724137931034483</v>
+        <v>0.1831726555652936</v>
       </c>
       <c r="L28">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2113,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>72</v>
+        <v>932</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2121,13 +2118,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4015748031496063</v>
+        <v>0.3696682464454976</v>
       </c>
       <c r="C29">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D29">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2139,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K29">
         <v>0.1709401709401709</v>
@@ -2171,49 +2168,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3773584905660378</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K30">
-        <v>0.1649122807017544</v>
+        <v>0.1493506493506493</v>
       </c>
       <c r="L30">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="N30">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>952</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2221,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3673469387755102</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2239,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K31">
-        <v>0.1096256684491979</v>
+        <v>0.126984126984127</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2263,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>333</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2271,7 +2268,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3666666666666666</v>
+        <v>0.34375</v>
       </c>
       <c r="C32">
         <v>22</v>
@@ -2289,31 +2286,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K32">
-        <v>0.1064935064935065</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="L32">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="N32">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O32">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P32" t="b">
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>1376</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2321,13 +2318,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3650793650793651</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C33">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2342,28 +2339,28 @@
         <v>40</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K33">
-        <v>0.1002785515320334</v>
+        <v>0.09635416666666667</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>323</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2371,13 +2368,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3432835820895522</v>
+        <v>0.3168316831683168</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2389,31 +2386,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K34">
-        <v>0.078125</v>
+        <v>0.0947075208913649</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="N34">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>236</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2421,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3333333333333333</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2439,31 +2436,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K35">
-        <v>0.06920415224913495</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M35">
         <v>21</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>269</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2471,13 +2468,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3174603174603174</v>
+        <v>0.2959183673469388</v>
       </c>
       <c r="C36">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2489,19 +2486,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K36">
-        <v>0.06559571619812583</v>
+        <v>0.06827309236947791</v>
       </c>
       <c r="L36">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M36">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N36">
         <v>0.91</v>
@@ -2513,7 +2510,7 @@
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2521,13 +2518,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3146067415730337</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2539,19 +2536,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K37">
-        <v>0.06191950464396285</v>
+        <v>0.06501547987616099</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M37">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>0.95</v>
@@ -2563,7 +2560,7 @@
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2571,13 +2568,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3125</v>
+        <v>0.2564102564102564</v>
       </c>
       <c r="C38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2589,31 +2586,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K38">
-        <v>0.05111821086261981</v>
+        <v>0.05862068965517241</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M38">
         <v>17</v>
       </c>
       <c r="N38">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O38">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>297</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2621,13 +2618,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.3090909090909091</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C39">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D39">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2639,31 +2636,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>38</v>
+        <v>147</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K39">
-        <v>0.0465587044534413</v>
+        <v>0.05357142857142857</v>
       </c>
       <c r="L39">
+        <v>15</v>
+      </c>
+      <c r="M39">
         <v>23</v>
       </c>
-      <c r="M39">
-        <v>29</v>
-      </c>
       <c r="N39">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="O39">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>471</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2671,13 +2668,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.3069306930693069</v>
+        <v>0.2318840579710145</v>
       </c>
       <c r="C40">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2689,31 +2686,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>140</v>
+        <v>53</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K40">
-        <v>0.0379746835443038</v>
+        <v>0.0523138832997988</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N40">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="O40">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>380</v>
+        <v>471</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2721,13 +2718,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2786885245901639</v>
+        <v>0.225</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2739,31 +2736,31 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K41">
-        <v>0.03736654804270462</v>
+        <v>0.03197158081705151</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M41">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N41">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="O41">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2771,13 +2768,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2628865979381443</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="C42">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="D42">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2789,31 +2786,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K42">
-        <v>0.03125</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L42">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N42">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O42">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2821,25 +2818,49 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2448979591836735</v>
+        <v>0.2162162162162162</v>
       </c>
       <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <v>16</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>58</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K43">
+        <v>0.02196193265007321</v>
+      </c>
+      <c r="L43">
+        <v>15</v>
+      </c>
+      <c r="M43">
         <v>24</v>
       </c>
-      <c r="D43">
-        <v>24</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>74</v>
+      <c r="N43">
+        <v>0.62</v>
+      </c>
+      <c r="O43">
+        <v>0.38</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2847,13 +2868,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2432432432432433</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="C44">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="D44">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2865,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>56</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2873,13 +2894,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2307692307692308</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2891,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>90</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2899,13 +2920,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2246835443037975</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="C46">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2917,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>245</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2925,13 +2946,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.21</v>
+        <v>0.1899109792284867</v>
       </c>
       <c r="C47">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="D47">
-        <v>42</v>
+        <v>128</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2943,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>158</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2951,13 +2972,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2027027027027027</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2969,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>59</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2977,25 +2998,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1978021978021978</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>73</v>
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3003,13 +3024,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1974522292993631</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3021,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3029,25 +3050,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1959654178674352</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C51">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="E51">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>279</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3055,25 +3076,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1920289855072464</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="C52">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D52">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>223</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3081,25 +3102,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1887072808320951</v>
+        <v>0.1610169491525424</v>
       </c>
       <c r="C53">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="D53">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="E53">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>546</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3107,13 +3128,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1708860759493671</v>
+        <v>0.1495327102803738</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D54">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3125,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>262</v>
+        <v>182</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3133,25 +3154,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1655629139072848</v>
+        <v>0.1484375</v>
       </c>
       <c r="C55">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D55">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E55">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>378</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3159,13 +3180,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1542056074766355</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C56">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D56">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3177,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>181</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3185,13 +3206,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1388888888888889</v>
+        <v>0.1256544502617801</v>
       </c>
       <c r="C57">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D57">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3203,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>93</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3211,13 +3232,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1371428571428571</v>
+        <v>0.1168831168831169</v>
       </c>
       <c r="C58">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D58">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3229,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3237,25 +3258,25 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1259842519685039</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D59">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E59">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>111</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3263,25 +3284,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1256830601092896</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="C60">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D60">
         <v>23</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3289,25 +3310,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.1203007518796992</v>
+        <v>0.1086142322097378</v>
       </c>
       <c r="C61">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D61">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E61">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3315,25 +3336,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1117021276595745</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="C62">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>167</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3341,13 +3362,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.1099476439790576</v>
+        <v>0.09142857142857143</v>
       </c>
       <c r="C63">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D63">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3359,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3367,25 +3388,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.108695652173913</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D64">
         <v>17</v>
       </c>
       <c r="E64">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>123</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3393,25 +3414,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1052631578947368</v>
+        <v>0.08743169398907104</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D65">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E65">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>221</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3419,25 +3440,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.09895833333333333</v>
+        <v>0.08520179372197309</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D66">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>173</v>
+        <v>408</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3445,25 +3466,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.09641255605381166</v>
+        <v>0.08415841584158416</v>
       </c>
       <c r="C67">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D67">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E67">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="F67">
-        <v>0.9299999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>403</v>
+        <v>555</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3471,25 +3492,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.0949367088607595</v>
+        <v>0.08192090395480225</v>
       </c>
       <c r="C68">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D68">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>143</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3497,25 +3518,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09065934065934066</v>
+        <v>0.07553956834532374</v>
       </c>
       <c r="C69">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D69">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E69">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="F69">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>331</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3523,13 +3544,13 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.08745874587458746</v>
+        <v>0.07417582417582418</v>
       </c>
       <c r="C70">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="D70">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E70">
         <v>0.04</v>
@@ -3541,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>553</v>
+        <v>337</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3549,25 +3570,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07344632768361582</v>
+        <v>0.06138107416879796</v>
       </c>
       <c r="C71">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D71">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E71">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="F71">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>328</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3575,25 +3596,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.07220216606498195</v>
+        <v>0.06103286384976526</v>
       </c>
       <c r="C72">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D72">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="E72">
-        <v>0.13</v>
+        <v>0.24</v>
       </c>
       <c r="F72">
-        <v>0.87</v>
+        <v>0.76</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>257</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3601,25 +3622,25 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.06349206349206349</v>
+        <v>0.06</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D73">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E73">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="F73">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>295</v>
+        <v>611</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3627,25 +3648,25 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.06338028169014084</v>
+        <v>0.05063291139240506</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D74">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E74">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="F74">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>399</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3653,25 +3674,25 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.0586734693877551</v>
+        <v>0.04215456674473068</v>
       </c>
       <c r="C75">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="D75">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="E75">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="F75">
-        <v>0.8200000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>738</v>
+        <v>409</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3679,25 +3700,25 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.05620608899297424</v>
+        <v>0.034</v>
       </c>
       <c r="C76">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D76">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E76">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="F76">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>403</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3705,77 +3726,25 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04006163328197226</v>
+        <v>0.03386004514672687</v>
       </c>
       <c r="C77">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D77">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E77">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="F77">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78">
-        <v>0.03218884120171674</v>
-      </c>
-      <c r="C78">
-        <v>15</v>
-      </c>
-      <c r="D78">
-        <v>18</v>
-      </c>
-      <c r="E78">
-        <v>0.17</v>
-      </c>
-      <c r="F78">
-        <v>0.83</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>0.02199413489736071</v>
-      </c>
-      <c r="C79">
-        <v>15</v>
-      </c>
-      <c r="D79">
-        <v>25</v>
-      </c>
-      <c r="E79">
-        <v>0.4</v>
-      </c>
-      <c r="F79">
-        <v>0.6</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79">
-        <v>667</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
